--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>26.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>006223</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>交银施罗德创新成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>90.96</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006223</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德创新成长混合</t>
+          <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +784,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>78.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>21.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +984,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>83.97</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1009,4 +1010,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1180,4 +1181,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1189,7 +1190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,17 +1201,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1220,14 +1241,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1236,14 +1279,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.94</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1252,13 +1317,741 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
         <v>9.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1966,7 +1967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,17 +1978,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1997,14 +2018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2013,14 +2056,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -2029,14 +2094,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.94</v>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2045,13 +2132,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>9.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2175,7 +2176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,17 +2187,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2206,14 +2227,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2222,14 +2265,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5</v>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2238,14 +2303,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2254,14 +2341,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.94</v>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2270,13 +2379,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>9.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,279 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3402</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.3402</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4603</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006223</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德创新成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3377</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -738,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -789,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.74</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5851</t>
+          <t>0.2560</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -827,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1366</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -865,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>012878</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1632</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -903,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -941,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0517</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -979,36 +829,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>012879</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>0.28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1073,32 +1037,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>009414</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>中银大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.81</t>
+          <t>86.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0627</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1121,26 +1085,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.40</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1149,36 +1113,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>010664</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>长江均衡成长混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,7 +1991,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2019,32 +2021,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009414</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银大健康股票A</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.25</t>
+          <t>29.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2067,26 +2069,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>88.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2095,12 +2097,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010321</t>
+          <t>010664</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银大健康股票C</t>
+          <t>长江均衡成长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2110,59 +2112,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.25</t>
+          <t>88.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010664</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长江均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,7 +2161,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2227,36 +2191,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>78.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2560</t>
+          <t>1.5851</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2265,36 +2229,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>21.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>1.1366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2303,36 +2267,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012878</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.1632</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2341,36 +2305,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2379,36 +2343,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>78.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0517</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2417,150 +2381,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012879</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010663</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长江均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012422</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏优加生活混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010664</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长江均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2574,128 +2424,278 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.94</v>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.49</v>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.94</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>9.49</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2134,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
+++ b/数据整理/stocks/A股/深证主板/002216-三全食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.94</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>9.49</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2435,7 +2774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2719,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
